--- a/City_Tier.xlsx
+++ b/City_Tier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonali\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonali\OneDrive\Desktop\git_prac_2\second_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1988EE-1F09-4ED8-9A5A-56937CCCCFF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC4B33D-9AC8-443C-9F28-E3E35443363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8261BD65-6719-4EDC-A6A8-BE6F59C1C7F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8261BD65-6719-4EDC-A6A8-BE6F59C1C7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>City</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>THANE</t>
+  </si>
+  <si>
+    <t>pandharpur</t>
+  </si>
+  <si>
+    <t>Tier3</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B2B35F-8A73-412E-8E58-0C4B6B41102E}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1646,6 +1652,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
